--- a/第4章excel/课堂文件.xlsx
+++ b/第4章excel/课堂文件.xlsx
@@ -4,29 +4,30 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="165" windowWidth="19440" windowHeight="9690" activeTab="3"/>
+    <workbookView xWindow="360" yWindow="165" windowWidth="19440" windowHeight="9690" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="基本操作案例" sheetId="1" r:id="rId1"/>
     <sheet name="打印" sheetId="2" state="hidden" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="sumif" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">打印!$A:$B,打印!$1:$1</definedName>
-    <definedName name="成绩单">基本操作案例!$A$2:$M$22</definedName>
-    <definedName name="录入日期">基本操作案例!$M$3:$M$22</definedName>
-    <definedName name="名次">基本操作案例!$K$3:$K$22</definedName>
-    <definedName name="数据区域">基本操作案例!$D$3:$I$22</definedName>
-    <definedName name="总分">基本操作案例!$J$3:$J$22</definedName>
-    <definedName name="总评">基本操作案例!$L$3:$L$22</definedName>
+    <definedName name="成绩单">基本操作案例!$A$1:$M$21</definedName>
+    <definedName name="录入日期">基本操作案例!$M$2:$M$21</definedName>
+    <definedName name="名次">基本操作案例!$K$2:$K$21</definedName>
+    <definedName name="数据区域">基本操作案例!$D$2:$I$21</definedName>
+    <definedName name="总分">基本操作案例!$J$2:$J$21</definedName>
+    <definedName name="总评">基本操作案例!$L$2:$L$21</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="98">
   <si>
     <t>编号</t>
   </si>
@@ -263,10 +264,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>程序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>名称</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -321,6 +318,50 @@
   <si>
     <t>杨梅</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>水果</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>重量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>总量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>香蕉</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>梨</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>葡萄</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃子</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>梨</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>苹果</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -334,7 +375,7 @@
     <numFmt numFmtId="179" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +423,13 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -426,7 +474,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -449,15 +497,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -467,7 +506,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -525,11 +564,12 @@
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -894,10 +934,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -911,90 +951,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A1" s="19" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3">
+        <v>66.5</v>
+      </c>
+      <c r="E2" s="2">
+        <v>92.5</v>
+      </c>
+      <c r="F2" s="2">
+        <v>95.5</v>
+      </c>
+      <c r="G2" s="2">
+        <v>98</v>
+      </c>
+      <c r="H2" s="2">
+        <v>86.5</v>
+      </c>
+      <c r="I2" s="2">
+        <v>71</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="9">
+        <v>42917</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
       <c r="B3" s="2" t="s">
-        <v>59</v>
+        <v>14</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="3">
-        <v>66.5</v>
+        <v>73.5</v>
       </c>
       <c r="E3" s="2">
-        <v>92.5</v>
+        <v>91.5</v>
       </c>
       <c r="F3" s="2">
-        <v>95.5</v>
+        <v>64.5</v>
       </c>
       <c r="G3" s="2">
-        <v>98</v>
+        <v>93.5</v>
       </c>
       <c r="H3" s="2">
-        <v>86.5</v>
+        <v>84</v>
       </c>
       <c r="I3" s="2">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="J3" s="5"/>
       <c r="K3" s="7"/>
@@ -1004,32 +1062,32 @@
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A4" s="4">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3">
-        <v>73.5</v>
+        <v>75.5</v>
       </c>
       <c r="E4" s="2">
-        <v>91.5</v>
+        <v>62.5</v>
       </c>
       <c r="F4" s="2">
-        <v>64.5</v>
+        <v>87</v>
       </c>
       <c r="G4" s="2">
-        <v>93.5</v>
+        <v>94.5</v>
       </c>
       <c r="H4" s="2">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="I4" s="2">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="J4" s="5"/>
       <c r="K4" s="7"/>
@@ -1038,33 +1096,33 @@
         <v>42917</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A5" s="2">
-        <v>3</v>
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="4">
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D5" s="3">
-        <v>75.5</v>
+        <v>79.5</v>
       </c>
       <c r="E5" s="2">
-        <v>62.5</v>
+        <v>98.5</v>
       </c>
       <c r="F5" s="2">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="G5" s="2">
-        <v>94.5</v>
+        <v>100</v>
       </c>
       <c r="H5" s="2">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="I5" s="2">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="J5" s="5"/>
       <c r="K5" s="7"/>
@@ -1073,33 +1131,33 @@
         <v>42917</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="4">
-        <v>4</v>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+      <c r="A6" s="2">
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D6" s="3">
-        <v>79.5</v>
+        <v>82.5</v>
       </c>
       <c r="E6" s="2">
-        <v>98.5</v>
+        <v>63.5</v>
       </c>
       <c r="F6" s="2">
-        <v>68</v>
+        <v>90.5</v>
       </c>
       <c r="G6" s="2">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H6" s="2">
-        <v>96</v>
+        <v>65.5</v>
       </c>
       <c r="I6" s="2">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="J6" s="5"/>
       <c r="K6" s="7"/>
@@ -1109,32 +1167,32 @@
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A7" s="2">
-        <v>5</v>
+      <c r="A7" s="4">
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D7" s="3">
         <v>82.5</v>
       </c>
       <c r="E7" s="2">
-        <v>63.5</v>
+        <v>78</v>
       </c>
       <c r="F7" s="2">
-        <v>90.5</v>
+        <v>81</v>
       </c>
       <c r="G7" s="2">
-        <v>97</v>
+        <v>96.5</v>
       </c>
       <c r="H7" s="2">
-        <v>65.5</v>
-      </c>
-      <c r="I7" s="2">
-        <v>99</v>
+        <v>96.5</v>
+      </c>
+      <c r="I7" s="10">
+        <v>57</v>
       </c>
       <c r="J7" s="5"/>
       <c r="K7" s="7"/>
@@ -1144,32 +1202,32 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A8" s="4">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="3">
-        <v>82.5</v>
+        <v>84.5</v>
       </c>
       <c r="E8" s="2">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="F8" s="2">
-        <v>81</v>
+        <v>99.5</v>
       </c>
       <c r="G8" s="2">
-        <v>96.5</v>
+        <v>89.5</v>
       </c>
       <c r="H8" s="2">
-        <v>96.5</v>
-      </c>
-      <c r="I8" s="10">
-        <v>57</v>
+        <v>84.5</v>
+      </c>
+      <c r="I8" s="2">
+        <v>58</v>
       </c>
       <c r="J8" s="5"/>
       <c r="K8" s="7"/>
@@ -1179,32 +1237,32 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A9" s="2">
-        <v>7</v>
+      <c r="A9" s="4">
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D9" s="3">
-        <v>84.5</v>
+        <v>87.5</v>
       </c>
       <c r="E9" s="2">
-        <v>71</v>
+        <v>63.5</v>
       </c>
       <c r="F9" s="2">
-        <v>99.5</v>
+        <v>67.5</v>
       </c>
       <c r="G9" s="2">
-        <v>89.5</v>
+        <v>98.5</v>
       </c>
       <c r="H9" s="2">
-        <v>84.5</v>
+        <v>78.5</v>
       </c>
       <c r="I9" s="2">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="7"/>
@@ -1214,32 +1272,32 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A10" s="4">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D10" s="3">
-        <v>87.5</v>
+        <v>88</v>
       </c>
       <c r="E10" s="2">
-        <v>63.5</v>
+        <v>82.5</v>
       </c>
       <c r="F10" s="2">
-        <v>67.5</v>
+        <v>83</v>
       </c>
       <c r="G10" s="2">
-        <v>98.5</v>
+        <v>75.5</v>
       </c>
       <c r="H10" s="2">
-        <v>78.5</v>
+        <v>72</v>
       </c>
       <c r="I10" s="2">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="J10" s="5"/>
       <c r="K10" s="7"/>
@@ -1247,34 +1305,35 @@
       <c r="M10" s="9">
         <v>42917</v>
       </c>
+      <c r="O10" s="11"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A11" s="2">
-        <v>9</v>
+      <c r="A11" s="4">
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="3">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="E11" s="2">
-        <v>82.5</v>
+        <v>64</v>
       </c>
       <c r="F11" s="2">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="G11" s="2">
-        <v>75.5</v>
+        <v>93</v>
       </c>
       <c r="H11" s="2">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I11" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J11" s="5"/>
       <c r="K11" s="7"/>
@@ -1282,35 +1341,34 @@
       <c r="M11" s="9">
         <v>42917</v>
       </c>
-      <c r="O11" s="11"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A12" s="4">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D12" s="3">
+        <v>93</v>
+      </c>
+      <c r="E12" s="2">
+        <v>71.5</v>
+      </c>
+      <c r="F12" s="2">
         <v>92</v>
       </c>
-      <c r="E12" s="2">
-        <v>64</v>
-      </c>
-      <c r="F12" s="2">
-        <v>97</v>
-      </c>
       <c r="G12" s="2">
-        <v>93</v>
+        <v>96.5</v>
       </c>
       <c r="H12" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="I12" s="2">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="J12" s="5"/>
       <c r="K12" s="7"/>
@@ -1320,32 +1378,32 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A13" s="2">
-        <v>11</v>
+      <c r="A13" s="4">
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3">
-        <v>93</v>
+        <v>93.5</v>
       </c>
       <c r="E13" s="2">
-        <v>71.5</v>
+        <v>85.5</v>
       </c>
       <c r="F13" s="2">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="G13" s="2">
-        <v>96.5</v>
+        <v>81</v>
       </c>
       <c r="H13" s="2">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="I13" s="2">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="J13" s="5"/>
       <c r="K13" s="7"/>
@@ -1355,32 +1413,32 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A14" s="4">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D14" s="3">
-        <v>93.5</v>
+        <v>96</v>
       </c>
       <c r="E14" s="2">
-        <v>85.5</v>
+        <v>72.5</v>
       </c>
       <c r="F14" s="2">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="G14" s="2">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H14" s="2">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="I14" s="2">
-        <v>78</v>
+        <v>87.5</v>
       </c>
       <c r="J14" s="5"/>
       <c r="K14" s="7"/>
@@ -1390,32 +1448,32 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A15" s="2">
-        <v>13</v>
+      <c r="A15" s="4">
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D15" s="3">
-        <v>96</v>
+        <v>96.5</v>
       </c>
       <c r="E15" s="2">
-        <v>72.5</v>
+        <v>86.5</v>
       </c>
       <c r="F15" s="2">
-        <v>100</v>
+        <v>90.5</v>
       </c>
       <c r="G15" s="2">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="H15" s="2">
-        <v>62</v>
+        <v>99.5</v>
       </c>
       <c r="I15" s="2">
-        <v>87.5</v>
+        <v>70</v>
       </c>
       <c r="J15" s="5"/>
       <c r="K15" s="7"/>
@@ -1425,32 +1483,32 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.15">
-      <c r="A16" s="4">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3">
-        <v>96.5</v>
+        <v>97.5</v>
       </c>
       <c r="E16" s="2">
-        <v>86.5</v>
+        <v>76</v>
       </c>
       <c r="F16" s="2">
-        <v>90.5</v>
+        <v>72</v>
       </c>
       <c r="G16" s="2">
-        <v>94</v>
+        <v>92.5</v>
       </c>
       <c r="H16" s="2">
-        <v>99.5</v>
+        <v>84.5</v>
       </c>
       <c r="I16" s="2">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="J16" s="5"/>
       <c r="K16" s="7"/>
@@ -1460,32 +1518,32 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A17" s="2">
-        <v>15</v>
+      <c r="A17" s="4">
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="3">
-        <v>97.5</v>
+        <v>56</v>
       </c>
       <c r="E17" s="2">
-        <v>76</v>
+        <v>77.5</v>
       </c>
       <c r="F17" s="2">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="G17" s="2">
-        <v>92.5</v>
+        <v>83</v>
       </c>
       <c r="H17" s="2">
-        <v>84.5</v>
+        <v>74.5</v>
       </c>
       <c r="I17" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J17" s="5"/>
       <c r="K17" s="7"/>
@@ -1495,32 +1553,32 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A18" s="4">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="3">
-        <v>56</v>
+        <v>58.5</v>
       </c>
       <c r="E18" s="2">
-        <v>77.5</v>
+        <v>90</v>
       </c>
       <c r="F18" s="2">
-        <v>85</v>
+        <v>88.5</v>
       </c>
       <c r="G18" s="2">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="H18" s="2">
-        <v>74.5</v>
+        <v>72</v>
       </c>
       <c r="I18" s="2">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="J18" s="5"/>
       <c r="K18" s="7"/>
@@ -1530,32 +1588,32 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A19" s="2">
-        <v>17</v>
+      <c r="A19" s="4">
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="3">
-        <v>58.5</v>
+        <v>63</v>
       </c>
       <c r="E19" s="2">
-        <v>90</v>
+        <v>99.5</v>
       </c>
       <c r="F19" s="2">
-        <v>88.5</v>
+        <v>78.5</v>
       </c>
       <c r="G19" s="2">
-        <v>97</v>
+        <v>63.5</v>
       </c>
       <c r="H19" s="2">
-        <v>72</v>
+        <v>79.5</v>
       </c>
       <c r="I19" s="2">
-        <v>65</v>
+        <v>65.5</v>
       </c>
       <c r="J19" s="5"/>
       <c r="K19" s="7"/>
@@ -1565,32 +1623,32 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A20" s="4">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D20" s="3">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="E20" s="2">
-        <v>99.5</v>
+        <v>89.5</v>
       </c>
       <c r="F20" s="2">
-        <v>78.5</v>
+        <v>92.5</v>
       </c>
       <c r="G20" s="2">
-        <v>63.5</v>
+        <v>73</v>
       </c>
       <c r="H20" s="2">
-        <v>79.5</v>
+        <v>58.5</v>
       </c>
       <c r="I20" s="2">
-        <v>65.5</v>
+        <v>96.5</v>
       </c>
       <c r="J20" s="5"/>
       <c r="K20" s="7"/>
@@ -1600,32 +1658,32 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A21" s="2">
-        <v>19</v>
+      <c r="A21" s="4">
+        <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="3">
-        <v>69</v>
+        <v>72.5</v>
       </c>
       <c r="E21" s="2">
-        <v>89.5</v>
+        <v>74.5</v>
       </c>
       <c r="F21" s="2">
-        <v>92.5</v>
+        <v>60.5</v>
       </c>
       <c r="G21" s="2">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="H21" s="2">
-        <v>58.5</v>
+        <v>77</v>
       </c>
       <c r="I21" s="2">
-        <v>96.5</v>
+        <v>78</v>
       </c>
       <c r="J21" s="5"/>
       <c r="K21" s="7"/>
@@ -1634,47 +1692,9 @@
         <v>42917</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A22" s="4">
-        <v>20</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="3">
-        <v>72.5</v>
-      </c>
-      <c r="E22" s="2">
-        <v>74.5</v>
-      </c>
-      <c r="F22" s="2">
-        <v>60.5</v>
-      </c>
-      <c r="G22" s="2">
-        <v>87</v>
-      </c>
-      <c r="H22" s="2">
-        <v>77</v>
-      </c>
-      <c r="I22" s="2">
-        <v>78</v>
-      </c>
-      <c r="J22" s="5"/>
-      <c r="K22" s="7"/>
-      <c r="L22" s="8"/>
-      <c r="M22" s="9">
-        <v>42917</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:M1"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="D3:I22">
+  <conditionalFormatting sqref="D2:I21">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
       <formula>60</formula>
     </cfRule>
@@ -1689,13 +1709,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C22">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C21">
       <formula1>"男,女"</formula1>
     </dataValidation>
-    <dataValidation type="date" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M3:M22">
+    <dataValidation type="date" operator="lessThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M21">
       <formula1>42948</formula1>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="请输入0到100之间的成绩！" sqref="D3:I22">
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="错误" error="请输入0到100之间的成绩！" sqref="D2:I21">
       <formula1>0</formula1>
       <formula2>100</formula2>
     </dataValidation>
@@ -4208,7 +4228,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -4216,117 +4236,280 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
         <v>74</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>75</v>
-      </c>
-      <c r="C1" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B2">
         <v>65</v>
       </c>
-      <c r="C2" s="20"/>
+      <c r="C2" s="19"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3">
         <v>78</v>
       </c>
-      <c r="C3" s="20"/>
+      <c r="C3" s="19"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4">
         <v>32</v>
       </c>
-      <c r="C4" s="20"/>
+      <c r="C4" s="19"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B5">
         <v>63</v>
       </c>
-      <c r="C5" s="20"/>
+      <c r="C5" s="19"/>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B6">
         <v>19</v>
       </c>
-      <c r="C6" s="20"/>
+      <c r="C6" s="19"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B7">
         <v>45</v>
       </c>
-      <c r="C7" s="20"/>
+      <c r="C7" s="19"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B8">
         <v>58</v>
       </c>
-      <c r="C8" s="20"/>
+      <c r="C8" s="19"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B9">
         <v>81</v>
       </c>
-      <c r="C9" s="20"/>
+      <c r="C9" s="19"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B10">
         <v>32</v>
       </c>
-      <c r="C10" s="20"/>
+      <c r="C10" s="19"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B11">
         <v>73</v>
       </c>
-      <c r="C11" s="20"/>
+      <c r="C11" s="19"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B12">
         <v>27</v>
       </c>
-      <c r="C12" s="20"/>
+      <c r="C12" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="21">
+        <v>43784</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="20">
+        <v>19</v>
+      </c>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="21"/>
+      <c r="B3" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="20">
+        <v>18</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="21"/>
+      <c r="B4" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="20">
+        <v>10</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="21">
+        <v>43785</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="20">
+        <v>18</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="21"/>
+      <c r="B6" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="C6" s="20">
+        <v>12</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="21"/>
+      <c r="B7" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="C7" s="20">
+        <v>5</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" s="21">
+        <v>43786</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="C8" s="20">
+        <v>9</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="21"/>
+      <c r="B9" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="20">
+        <v>7</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="21"/>
+      <c r="B10" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C10" s="20">
+        <v>10</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="A8:A10"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/第4章excel/课堂文件.xlsx
+++ b/第4章excel/课堂文件.xlsx
@@ -328,14 +328,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>重量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>总量</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>苹果</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -361,6 +353,14 @@
   </si>
   <si>
     <t>苹果</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>销量</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>总销量</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -4356,7 +4356,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4369,14 +4369,14 @@
         <v>88</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D1" s="20"/>
       <c r="E1" s="20" t="s">
         <v>88</v>
       </c>
       <c r="F1" s="20" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -4384,79 +4384,74 @@
         <v>43784</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C2" s="20">
         <v>19</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="20"/>
+        <v>89</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="21"/>
       <c r="B3" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C3" s="20">
         <v>18</v>
       </c>
       <c r="D3" s="20"/>
       <c r="E3" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="F3" s="20"/>
+        <v>90</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="21"/>
       <c r="B4" s="20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C4" s="20">
         <v>10</v>
       </c>
       <c r="D4" s="20"/>
       <c r="E4" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="F4" s="20"/>
+        <v>91</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="21">
         <v>43785</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" s="20">
         <v>18</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="20"/>
+        <v>92</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="21"/>
       <c r="B6" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C6" s="20">
         <v>12</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="20"/>
+        <v>93</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="21"/>
       <c r="B7" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C7" s="20">
         <v>5</v>
@@ -4470,7 +4465,7 @@
         <v>43786</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C8" s="20">
         <v>9</v>
@@ -4482,7 +4477,7 @@
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="21"/>
       <c r="B9" s="20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C9" s="20">
         <v>7</v>
@@ -4494,7 +4489,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="21"/>
       <c r="B10" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C10" s="20">
         <v>10</v>

--- a/第4章excel/课堂文件.xlsx
+++ b/第4章excel/课堂文件.xlsx
@@ -474,7 +474,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -497,6 +497,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -506,7 +524,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -571,6 +589,18 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -4356,7 +4386,7 @@
   <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4407,7 +4437,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="21"/>
       <c r="B4" s="20" t="s">
         <v>95</v>
@@ -4421,13 +4451,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="21">
+      <c r="A5" s="22">
         <v>43785</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="20">
+      <c r="C5" s="23">
         <v>18</v>
       </c>
       <c r="D5" s="20"/>
@@ -4436,11 +4466,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="21"/>
-      <c r="B6" s="20" t="s">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="20">
+      <c r="C6" s="25">
         <v>12</v>
       </c>
       <c r="D6" s="20"/>
@@ -4448,12 +4478,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A7" s="21"/>
-      <c r="B7" s="20" t="s">
+    <row r="7" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26"/>
+      <c r="B7" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="20">
+      <c r="C7" s="27">
         <v>5</v>
       </c>
       <c r="D7" s="20"/>
@@ -4506,5 +4536,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/第4章excel/课堂文件.xlsx
+++ b/第4章excel/课堂文件.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="165" windowWidth="19440" windowHeight="9690" activeTab="4"/>
+    <workbookView xWindow="360" yWindow="165" windowWidth="19440" windowHeight="9690" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="基本操作案例" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
     <sheet name="sumif" sheetId="5" r:id="rId5"/>
+    <sheet name="vlookup" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">打印!$A:$B,打印!$1:$1</definedName>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="125">
   <si>
     <t>编号</t>
   </si>
@@ -362,13 +363,104 @@
   <si>
     <t>总销量</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>订单号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>应收款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0000156</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0000157</t>
+  </si>
+  <si>
+    <t>D0000158</t>
+  </si>
+  <si>
+    <t>D0000159</t>
+  </si>
+  <si>
+    <t>D0000160</t>
+  </si>
+  <si>
+    <t>D0000161</t>
+  </si>
+  <si>
+    <t>D0000162</t>
+  </si>
+  <si>
+    <t>D0000163</t>
+  </si>
+  <si>
+    <t>D0000164</t>
+  </si>
+  <si>
+    <t>D0000165</t>
+  </si>
+  <si>
+    <t>D0000166</t>
+  </si>
+  <si>
+    <t>D0000167</t>
+  </si>
+  <si>
+    <t>D0000168</t>
+  </si>
+  <si>
+    <t>D0000169</t>
+  </si>
+  <si>
+    <t>D0000170</t>
+  </si>
+  <si>
+    <t>D0000171</t>
+  </si>
+  <si>
+    <t>D0000172</t>
+  </si>
+  <si>
+    <t>D0000173</t>
+  </si>
+  <si>
+    <t>D0000174</t>
+  </si>
+  <si>
+    <t>订单号</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>实收款</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>核对</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0000156</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0000126</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D0000176</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="5" formatCode="&quot;¥&quot;#,##0;&quot;¥&quot;\-#,##0"/>
     <numFmt numFmtId="176" formatCode="0.0_ "/>
     <numFmt numFmtId="177" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="178" formatCode="&quot;KD&quot;000"/>
@@ -431,7 +523,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -471,6 +563,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -524,7 +622,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -586,21 +684,33 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="差" xfId="1" builtinId="27"/>
@@ -4385,7 +4495,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -4410,7 +4520,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="21">
+      <c r="A2" s="24">
         <v>43784</v>
       </c>
       <c r="B2" s="20" t="s">
@@ -4425,7 +4535,7 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="21"/>
+      <c r="A3" s="24"/>
       <c r="B3" s="20" t="s">
         <v>90</v>
       </c>
@@ -4438,7 +4548,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21"/>
+      <c r="A4" s="24"/>
       <c r="B4" s="20" t="s">
         <v>95</v>
       </c>
@@ -4451,13 +4561,13 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="22">
+      <c r="A5" s="25">
         <v>43785</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="21">
         <v>18</v>
       </c>
       <c r="D5" s="20"/>
@@ -4466,11 +4576,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A6" s="24"/>
-      <c r="B6" s="25" t="s">
+      <c r="A6" s="26"/>
+      <c r="B6" s="22" t="s">
         <v>91</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="22">
         <v>12</v>
       </c>
       <c r="D6" s="20"/>
@@ -4479,11 +4589,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="27" t="s">
+      <c r="A7" s="27"/>
+      <c r="B7" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="27">
+      <c r="C7" s="23">
         <v>5</v>
       </c>
       <c r="D7" s="20"/>
@@ -4491,7 +4601,7 @@
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A8" s="21">
+      <c r="A8" s="24">
         <v>43786</v>
       </c>
       <c r="B8" s="20" t="s">
@@ -4505,7 +4615,7 @@
       <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A9" s="21"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="20" t="s">
         <v>89</v>
       </c>
@@ -4517,7 +4627,7 @@
       <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="21"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="20" t="s">
         <v>93</v>
       </c>
@@ -4538,4 +4648,294 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A2" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="30">
+        <v>8815</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="F2" s="30">
+        <v>8815</v>
+      </c>
+      <c r="G2" s="31" t="str">
+        <f>IFERROR(IF(VLOOKUP(E2,$A$3:$B$21,2,FALSE)&lt;&gt;F2,"金额有误",""),"订单号有误")</f>
+        <v>订单号有误</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="30">
+        <v>22811</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="F3" s="30">
+        <v>2811</v>
+      </c>
+      <c r="G3" s="31" t="str">
+        <f t="shared" ref="G3:G11" si="0">IFERROR(IF(VLOOKUP(E3,$A$3:$B$21,2,FALSE)&lt;&gt;F3,"金额有误",""),"订单号有误")</f>
+        <v>金额有误</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="30">
+        <v>13129</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="30">
+        <v>3729</v>
+      </c>
+      <c r="G4" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="30">
+        <v>4657</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="F5" s="30">
+        <v>5097</v>
+      </c>
+      <c r="G5" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6" s="30">
+        <v>3729</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="30">
+        <v>6244</v>
+      </c>
+      <c r="G6" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>订单号有误</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7" s="30">
+        <v>5097</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="F7" s="30">
+        <v>12559</v>
+      </c>
+      <c r="G7" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>金额有误</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8" s="30">
+        <v>6244</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="F8" s="30">
+        <v>2812</v>
+      </c>
+      <c r="G8" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A9" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="30">
+        <v>2170</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="F9" s="30">
+        <v>15327</v>
+      </c>
+      <c r="G9" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v>订单号有误</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A10" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="30">
+        <v>6662</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="30">
+        <v>5930</v>
+      </c>
+      <c r="G10" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A11" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="30">
+        <v>2559</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="F11" s="30">
+        <v>6447</v>
+      </c>
+      <c r="G11" s="31" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A12" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="B12" s="30">
+        <v>2812</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A13" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="B13" s="30">
+        <v>15327</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A14" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="30">
+        <v>6425</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A15" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="30">
+        <v>5583</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A16" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="30">
+        <v>5930</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" s="30">
+        <v>6447</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="B18" s="30">
+        <v>6647</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="30">
+        <v>15876</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="30">
+        <v>23304</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>